--- a/SkillsList.xlsx
+++ b/SkillsList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="977">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="1213">
   <si>
     <t>Skills</t>
   </si>
@@ -435,9 +435,6 @@
     <t>DAX</t>
   </si>
   <si>
-    <t>Ease</t>
-  </si>
-  <si>
     <t>Easy PL/I</t>
   </si>
   <si>
@@ -1521,9 +1518,6 @@
     <t>SIGNAL</t>
   </si>
   <si>
-    <t>SiMPLE</t>
-  </si>
-  <si>
     <t>SIMSCRIPT</t>
   </si>
   <si>
@@ -2950,6 +2944,720 @@
   </si>
   <si>
     <t>Aws</t>
+  </si>
+  <si>
+    <t>SOQL</t>
+  </si>
+  <si>
+    <t>Triggers</t>
+  </si>
+  <si>
+    <t>Sandbox</t>
+  </si>
+  <si>
+    <t>SFDC</t>
+  </si>
+  <si>
+    <t>Oracle Financials</t>
+  </si>
+  <si>
+    <t>Oracle ERP Financials</t>
+  </si>
+  <si>
+    <t>Oracle Cloud Integrations</t>
+  </si>
+  <si>
+    <t>Linux Shell Scripting</t>
+  </si>
+  <si>
+    <t>Unix Shell Scripting</t>
+  </si>
+  <si>
+    <t>Cloud Computing</t>
+  </si>
+  <si>
+    <t>API gateway integration</t>
+  </si>
+  <si>
+    <t>Automated Testing</t>
+  </si>
+  <si>
+    <t>Cloud Development</t>
+  </si>
+  <si>
+    <t>DynamoDB</t>
+  </si>
+  <si>
+    <t>Kafka</t>
+  </si>
+  <si>
+    <t>AWS Application Integration Services</t>
+  </si>
+  <si>
+    <t>AWS Cost Management Services</t>
+  </si>
+  <si>
+    <t>BlockChain</t>
+  </si>
+  <si>
+    <t>AWS Compute Services</t>
+  </si>
+  <si>
+    <t>Container Services</t>
+  </si>
+  <si>
+    <t>AWS Database Services</t>
+  </si>
+  <si>
+    <t>AWS Network and Content Delivery</t>
+  </si>
+  <si>
+    <t>AWS Storage</t>
+  </si>
+  <si>
+    <t>Amazon Athena</t>
+  </si>
+  <si>
+    <t>Amazon Cloudsearch</t>
+  </si>
+  <si>
+    <t>Amazon Elastic Search</t>
+  </si>
+  <si>
+    <t>Amazon EMR</t>
+  </si>
+  <si>
+    <t>Amazon Kenesis</t>
+  </si>
+  <si>
+    <t>Amazon Redshift</t>
+  </si>
+  <si>
+    <t>Amazon QuickSight</t>
+  </si>
+  <si>
+    <t>Amazon Data Exchange</t>
+  </si>
+  <si>
+    <t>Amazon Data Pipeline</t>
+  </si>
+  <si>
+    <t>Amazon Glue</t>
+  </si>
+  <si>
+    <t>AWS Lake Formation</t>
+  </si>
+  <si>
+    <t>AWS Step Functions</t>
+  </si>
+  <si>
+    <t>Amazon AppFlow</t>
+  </si>
+  <si>
+    <t>Amazon EventBridge</t>
+  </si>
+  <si>
+    <t>Amazon MQ</t>
+  </si>
+  <si>
+    <t>Amazon SNS</t>
+  </si>
+  <si>
+    <t>Amazon SQS</t>
+  </si>
+  <si>
+    <t>Amazon AppSync</t>
+  </si>
+  <si>
+    <t>AWS Cost Explorer</t>
+  </si>
+  <si>
+    <t>AWS Budgets</t>
+  </si>
+  <si>
+    <t>AWS Cost and Usage Report</t>
+  </si>
+  <si>
+    <t>Amazon Managed Blockchain</t>
+  </si>
+  <si>
+    <t>Quantum Ledger DB (QLDB)</t>
+  </si>
+  <si>
+    <t>Amazon EC2</t>
+  </si>
+  <si>
+    <t>EC2 Autoscaling</t>
+  </si>
+  <si>
+    <t>Amazon LightSail</t>
+  </si>
+  <si>
+    <t>Elastic Beanstalk</t>
+  </si>
+  <si>
+    <t>ECR</t>
+  </si>
+  <si>
+    <t>Elastic Container Registry</t>
+  </si>
+  <si>
+    <t>Elastic Container Service</t>
+  </si>
+  <si>
+    <t>ECS</t>
+  </si>
+  <si>
+    <t>Elastic Kubernetes Service</t>
+  </si>
+  <si>
+    <t>EKS</t>
+  </si>
+  <si>
+    <t>AWS Copilot</t>
+  </si>
+  <si>
+    <t>AWS Fargate</t>
+  </si>
+  <si>
+    <t>Aurora</t>
+  </si>
+  <si>
+    <t>Elasticache</t>
+  </si>
+  <si>
+    <t>Neptune</t>
+  </si>
+  <si>
+    <t>Amazon RDS</t>
+  </si>
+  <si>
+    <t>Timestream</t>
+  </si>
+  <si>
+    <t>AWS VPC</t>
+  </si>
+  <si>
+    <t>API Gateway</t>
+  </si>
+  <si>
+    <t>CloudFront</t>
+  </si>
+  <si>
+    <t>Route53</t>
+  </si>
+  <si>
+    <t>AWS PrivateLink</t>
+  </si>
+  <si>
+    <t>AWS App Mesh</t>
+  </si>
+  <si>
+    <t>AWS CloudMap</t>
+  </si>
+  <si>
+    <t>AWS Direct Connect</t>
+  </si>
+  <si>
+    <t>Global Accellerator</t>
+  </si>
+  <si>
+    <t>AWS Transit Gateway</t>
+  </si>
+  <si>
+    <t>Elastic Load Balancing</t>
+  </si>
+  <si>
+    <t>Amazon S3</t>
+  </si>
+  <si>
+    <t>EBS</t>
+  </si>
+  <si>
+    <t>Elastic Block Store</t>
+  </si>
+  <si>
+    <t>EFS</t>
+  </si>
+  <si>
+    <t>FSx for Lustre</t>
+  </si>
+  <si>
+    <t>FSx for Windows File System</t>
+  </si>
+  <si>
+    <t>S3 Glacier</t>
+  </si>
+  <si>
+    <t>AWS Backup</t>
+  </si>
+  <si>
+    <t>AWS Snow</t>
+  </si>
+  <si>
+    <t>AWS Storage Gateway</t>
+  </si>
+  <si>
+    <t>CloudEndure</t>
+  </si>
+  <si>
+    <t>Database Testing</t>
+  </si>
+  <si>
+    <t>MySQL Testing</t>
+  </si>
+  <si>
+    <t>Scrum</t>
+  </si>
+  <si>
+    <t>Work Process Automation</t>
+  </si>
+  <si>
+    <t>SQL Development</t>
+  </si>
+  <si>
+    <t>Production Support</t>
+  </si>
+  <si>
+    <t>Celery</t>
+  </si>
+  <si>
+    <t>Data Querying</t>
+  </si>
+  <si>
+    <t>Maven</t>
+  </si>
+  <si>
+    <t>Apache Maven</t>
+  </si>
+  <si>
+    <t>Salesforce Development</t>
+  </si>
+  <si>
+    <t>Webpack</t>
+  </si>
+  <si>
+    <t>NPM</t>
+  </si>
+  <si>
+    <t>Oracle Suite</t>
+  </si>
+  <si>
+    <t>Project Management</t>
+  </si>
+  <si>
+    <t>Oracle Cloud Financials</t>
+  </si>
+  <si>
+    <t>Accounts Payable</t>
+  </si>
+  <si>
+    <t>Accounts Recievable</t>
+  </si>
+  <si>
+    <t>Impact Analysis</t>
+  </si>
+  <si>
+    <t>PLSQL</t>
+  </si>
+  <si>
+    <t>PL SQL</t>
+  </si>
+  <si>
+    <t>Oracle E-Business Suite</t>
+  </si>
+  <si>
+    <t>Fixed Assets</t>
+  </si>
+  <si>
+    <t>Cash Management</t>
+  </si>
+  <si>
+    <t>Project Accounting</t>
+  </si>
+  <si>
+    <t>Snowflake</t>
+  </si>
+  <si>
+    <t>Data Warehousing</t>
+  </si>
+  <si>
+    <t>ERP Global Source</t>
+  </si>
+  <si>
+    <t>SAP Procurement</t>
+  </si>
+  <si>
+    <t>VIM</t>
+  </si>
+  <si>
+    <t>SAP Ariba</t>
+  </si>
+  <si>
+    <t>Ariba</t>
+  </si>
+  <si>
+    <t>SAP ECC</t>
+  </si>
+  <si>
+    <t>ECC</t>
+  </si>
+  <si>
+    <t>SAP S4</t>
+  </si>
+  <si>
+    <t>Ariba Network</t>
+  </si>
+  <si>
+    <t>Open Text Intelligent Capture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpenText VIM </t>
+  </si>
+  <si>
+    <t>VIM Workplace</t>
+  </si>
+  <si>
+    <t>VIM Analytics</t>
+  </si>
+  <si>
+    <t>PMP</t>
+  </si>
+  <si>
+    <t>GxP</t>
+  </si>
+  <si>
+    <t>Workday</t>
+  </si>
+  <si>
+    <t>MuleSoft</t>
+  </si>
+  <si>
+    <t>Plan budgets</t>
+  </si>
+  <si>
+    <t>Status Reports</t>
+  </si>
+  <si>
+    <t>Business Case</t>
+  </si>
+  <si>
+    <t>Lessons Learned</t>
+  </si>
+  <si>
+    <t>Change Management</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Analysis</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Risk Assessment</t>
+  </si>
+  <si>
+    <t>Requirements gathering</t>
+  </si>
+  <si>
+    <t>Sharepoint</t>
+  </si>
+  <si>
+    <t>Business Intelligence</t>
+  </si>
+  <si>
+    <t>Power Apps</t>
+  </si>
+  <si>
+    <t>SQL Server</t>
+  </si>
+  <si>
+    <t>ESX</t>
+  </si>
+  <si>
+    <t>SFTP</t>
+  </si>
+  <si>
+    <t>RHEL</t>
+  </si>
+  <si>
+    <t>Red Hat Enterprise Linux</t>
+  </si>
+  <si>
+    <t>DHCP</t>
+  </si>
+  <si>
+    <t>Samba</t>
+  </si>
+  <si>
+    <t>Oracle Server</t>
+  </si>
+  <si>
+    <t>Confluence</t>
+  </si>
+  <si>
+    <t>ESXi</t>
+  </si>
+  <si>
+    <t>Tomcat</t>
+  </si>
+  <si>
+    <t>Apache Tomcat</t>
+  </si>
+  <si>
+    <t>Ansible</t>
+  </si>
+  <si>
+    <t>HCM</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>Less</t>
+  </si>
+  <si>
+    <t>LESS,js</t>
+  </si>
+  <si>
+    <t>Typescript</t>
+  </si>
+  <si>
+    <t>Postman</t>
+  </si>
+  <si>
+    <t>Quality Assurance</t>
+  </si>
+  <si>
+    <t>Automation Scripts</t>
+  </si>
+  <si>
+    <t>GitHub</t>
+  </si>
+  <si>
+    <t>Jenkins</t>
+  </si>
+  <si>
+    <t>GCP</t>
+  </si>
+  <si>
+    <t>Google Cloud Platform</t>
+  </si>
+  <si>
+    <t>PySpark</t>
+  </si>
+  <si>
+    <t>US Citizen</t>
+  </si>
+  <si>
+    <t>Project Manager</t>
+  </si>
+  <si>
+    <t>Business Process</t>
+  </si>
+  <si>
+    <t>Reporting</t>
+  </si>
+  <si>
+    <t>Budgeting</t>
+  </si>
+  <si>
+    <t>Project Plan</t>
+  </si>
+  <si>
+    <t>Life Cycle</t>
+  </si>
+  <si>
+    <t>project life cycle</t>
+  </si>
+  <si>
+    <t>project milestones</t>
+  </si>
+  <si>
+    <t>agile coach</t>
+  </si>
+  <si>
+    <t>servant leader</t>
+  </si>
+  <si>
+    <t>Terraform</t>
+  </si>
+  <si>
+    <t>RPM</t>
+  </si>
+  <si>
+    <t>Data Mapping</t>
+  </si>
+  <si>
+    <t>Gather requirements</t>
+  </si>
+  <si>
+    <t>Contineous integration</t>
+  </si>
+  <si>
+    <t>User Interface</t>
+  </si>
+  <si>
+    <t>Unittest</t>
+  </si>
+  <si>
+    <t>Unit test</t>
+  </si>
+  <si>
+    <t>Regression testing</t>
+  </si>
+  <si>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>Execution</t>
+  </si>
+  <si>
+    <t>Kubernetes</t>
+  </si>
+  <si>
+    <t>CRM</t>
+  </si>
+  <si>
+    <t>Microsoft Dynamics 365</t>
+  </si>
+  <si>
+    <t>Microsoft D365</t>
+  </si>
+  <si>
+    <t>Acceptance Testing</t>
+  </si>
+  <si>
+    <t>Product Owner</t>
+  </si>
+  <si>
+    <t>BI Developer</t>
+  </si>
+  <si>
+    <t>dashboards</t>
+  </si>
+  <si>
+    <t>reports</t>
+  </si>
+  <si>
+    <t>OLAP</t>
+  </si>
+  <si>
+    <t>OLTP</t>
+  </si>
+  <si>
+    <t>deploy</t>
+  </si>
+  <si>
+    <t>user stories</t>
+  </si>
+  <si>
+    <t>relational database</t>
+  </si>
+  <si>
+    <t>Informatica</t>
+  </si>
+  <si>
+    <t>SRS</t>
+  </si>
+  <si>
+    <t>Resource Management</t>
+  </si>
+  <si>
+    <t>firewall</t>
+  </si>
+  <si>
+    <t>network security</t>
+  </si>
+  <si>
+    <t>High availability</t>
+  </si>
+  <si>
+    <t>check point</t>
+  </si>
+  <si>
+    <t>ADF</t>
+  </si>
+  <si>
+    <t>Azure Data Factory</t>
+  </si>
+  <si>
+    <t>RDBMS</t>
+  </si>
+  <si>
+    <t>Data Lake</t>
+  </si>
+  <si>
+    <t>Workflows</t>
+  </si>
+  <si>
+    <t>Forecasting</t>
+  </si>
+  <si>
+    <t>demand forecasting</t>
+  </si>
+  <si>
+    <t>supply chain</t>
+  </si>
+  <si>
+    <t>demand planning</t>
+  </si>
+  <si>
+    <t>planning processes</t>
+  </si>
+  <si>
+    <t>SDLC</t>
+  </si>
+  <si>
+    <t>budget</t>
+  </si>
+  <si>
+    <t>design</t>
+  </si>
+  <si>
+    <t>development</t>
+  </si>
+  <si>
+    <t>jQuery</t>
+  </si>
+  <si>
+    <t>CSS</t>
+  </si>
+  <si>
+    <t>JIRA</t>
+  </si>
+  <si>
+    <t>Bamboo</t>
+  </si>
+  <si>
+    <t>APIs</t>
+  </si>
+  <si>
+    <t>phishing</t>
+  </si>
+  <si>
+    <t>campaigns</t>
+  </si>
+  <si>
+    <t>management</t>
+  </si>
+  <si>
+    <t>leadership</t>
+  </si>
+  <si>
+    <t>accuracy</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>testing</t>
   </si>
 </sst>
 </file>
@@ -2968,6 +3676,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3314,13 +4023,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A994"/>
+  <dimension ref="A1:A1241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A883" workbookViewId="0">
-      <selection activeCell="A890" sqref="A890"/>
+    <sheetView tabSelected="1" topLeftCell="A1228" workbookViewId="0">
+      <selection activeCell="A1241" sqref="A1241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="53.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -4509,7 +5221,7 @@
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
@@ -4644,7 +5356,7 @@
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
@@ -6004,12 +6716,12 @@
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
@@ -6379,17 +7091,17 @@
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>608</v>
+        <v>520</v>
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>522</v>
+        <v>609</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.25">
@@ -6444,17 +7156,17 @@
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>620</v>
+        <v>85</v>
       </c>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>85</v>
+        <v>621</v>
       </c>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.25">
@@ -6479,32 +7191,32 @@
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>626</v>
+        <v>125</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
-        <v>125</v>
+        <v>627</v>
       </c>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
-        <v>628</v>
+        <v>128</v>
       </c>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>128</v>
+        <v>629</v>
       </c>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.25">
@@ -6654,17 +7366,17 @@
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
-        <v>659</v>
+        <v>608</v>
       </c>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
-        <v>610</v>
+        <v>660</v>
       </c>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.25">
@@ -6894,17 +7606,17 @@
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
-        <v>706</v>
+        <v>452</v>
       </c>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
-        <v>453</v>
+        <v>707</v>
       </c>
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.25">
@@ -7129,17 +7841,17 @@
     </row>
     <row r="762" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
-        <v>752</v>
+        <v>125</v>
       </c>
     </row>
     <row r="763" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="764" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
-        <v>125</v>
+        <v>753</v>
       </c>
     </row>
     <row r="765" spans="1:1" x14ac:dyDescent="0.25">
@@ -7164,17 +7876,17 @@
     </row>
     <row r="769" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
-        <v>758</v>
+        <v>146</v>
       </c>
     </row>
     <row r="770" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
-        <v>147</v>
+        <v>759</v>
       </c>
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.25">
@@ -7224,17 +7936,17 @@
     </row>
     <row r="781" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
-        <v>769</v>
+        <v>200</v>
       </c>
     </row>
     <row r="782" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="783" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
-        <v>201</v>
+        <v>770</v>
       </c>
     </row>
     <row r="784" spans="1:1" x14ac:dyDescent="0.25">
@@ -7629,17 +8341,17 @@
     </row>
     <row r="862" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
-        <v>849</v>
+        <v>753</v>
       </c>
     </row>
     <row r="863" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="864" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
-        <v>755</v>
+        <v>850</v>
       </c>
     </row>
     <row r="865" spans="1:1" x14ac:dyDescent="0.25">
@@ -7744,22 +8456,22 @@
     </row>
     <row r="885" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A885" t="s">
-        <v>871</v>
+        <v>756</v>
       </c>
     </row>
     <row r="886" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A886" t="s">
-        <v>872</v>
+        <v>767</v>
       </c>
     </row>
     <row r="887" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A887" t="s">
-        <v>758</v>
+        <v>871</v>
       </c>
     </row>
     <row r="888" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A888" t="s">
-        <v>769</v>
+        <v>872</v>
       </c>
     </row>
     <row r="889" spans="1:1" x14ac:dyDescent="0.25">
@@ -7774,27 +8486,27 @@
     </row>
     <row r="891" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A891" t="s">
-        <v>875</v>
+        <v>799</v>
       </c>
     </row>
     <row r="892" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A892" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="893" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A893" t="s">
-        <v>801</v>
+        <v>822</v>
       </c>
     </row>
     <row r="894" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A894" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="895" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A895" t="s">
-        <v>824</v>
+        <v>877</v>
       </c>
     </row>
     <row r="896" spans="1:1" x14ac:dyDescent="0.25">
@@ -7829,27 +8541,27 @@
     </row>
     <row r="902" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
-        <v>884</v>
+        <v>929</v>
       </c>
     </row>
     <row r="903" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A903" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="904" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A904" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="905" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A905" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="906" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A906" t="s">
-        <v>932</v>
+        <v>886</v>
       </c>
     </row>
     <row r="907" spans="1:1" x14ac:dyDescent="0.25">
@@ -7884,12 +8596,12 @@
     </row>
     <row r="913" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A913" t="s">
-        <v>893</v>
+        <v>931</v>
       </c>
     </row>
     <row r="914" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A914" t="s">
-        <v>894</v>
+        <v>932</v>
       </c>
     </row>
     <row r="915" spans="1:1" x14ac:dyDescent="0.25">
@@ -7919,12 +8631,12 @@
     </row>
     <row r="920" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A920" t="s">
-        <v>938</v>
+        <v>893</v>
       </c>
     </row>
     <row r="921" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A921" t="s">
-        <v>939</v>
+        <v>894</v>
       </c>
     </row>
     <row r="922" spans="1:1" x14ac:dyDescent="0.25">
@@ -8099,12 +8811,12 @@
     </row>
     <row r="956" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A956" t="s">
-        <v>929</v>
+        <v>938</v>
       </c>
     </row>
     <row r="957" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A957" t="s">
-        <v>930</v>
+        <v>939</v>
       </c>
     </row>
     <row r="958" spans="1:1" x14ac:dyDescent="0.25">
@@ -8292,7 +9004,1243 @@
         <v>976</v>
       </c>
     </row>
+    <row r="995" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A995" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="996" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A996" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="997" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A997" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="998" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A998" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="999" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A999" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1000" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1001" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1002" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1003" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1004" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1005" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1006" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1007" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1008" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1009" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1010" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1011" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1012" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1013" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1014" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1015" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1016" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1017" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1018" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1019" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1020" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1021" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1022" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1023" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1024" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1025" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1026" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1027" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1028" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1029" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1030" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1031" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1032" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1033" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1034" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1035" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1036" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1037" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1038" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1039" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1040" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1041" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1042" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1043" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1044" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1045" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1046" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1047" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1049" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1050" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1051" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1052" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1053" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1054" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1055" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1056" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1057" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1058" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1059" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1060" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1061" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1062" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1063" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1064" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1065" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1066" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1067" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1068" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1069" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1070" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1071" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1072" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1073" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1074" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1075" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1076" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1077" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1078" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1079" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1080" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1081" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1082" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1083" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1084" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1085" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1086" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1087" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1088" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1089" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1090" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1091" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1092" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1093" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1094" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1095" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1096" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1097" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1098" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1099" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1100" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1101" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1102" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1103" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1104" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1105" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1106" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1107" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1108" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1109" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1110" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1111" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1112" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1113" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1114" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1115" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1116" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1117" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1118" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1119" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1120" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1121" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1122" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1123" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1124" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1125" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1126" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1127" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1128" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1129" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1130" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1131" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1132" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1133" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1134" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1135" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1136" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1137" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1138" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1139" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1140" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1141" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1142" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1143" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1144" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1145" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1146" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1147" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1148" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1149" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1150" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1151" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1152" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1153" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1154" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1155" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1156" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1157" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1158" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1159" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1160" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1161" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1162" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1163" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1164" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1165" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1166" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1167" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1168" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1169" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1170" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1171" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1172" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1173" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1174" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1175" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1176" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1177" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1178" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1179" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1180" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1181" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1182" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1183" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1184" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1185" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1186" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1187" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1188" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1189" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1190" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1191" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1192" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1193" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1194" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1195" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1196" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1197" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1198" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1199" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1200" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1201" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1202" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1203" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1204" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1205" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1206" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1207" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1208" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1209" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1210" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1211" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1212" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1213" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1214" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1215" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1216" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1217" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1218" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1219" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1220" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1221" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1222" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1223" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1224" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1225" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1226" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1227" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1228" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1229" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1230" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1231" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1232" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1233" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1234" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1235" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1236" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1237" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1238" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1239" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1240" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1241" t="s">
+        <v>1212</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>